--- a/Yearly_Results/scenarios_result.xlsx
+++ b/Yearly_Results/scenarios_result.xlsx
@@ -507,7 +507,7 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>3.809298751430293</v>
+        <v>4.402256559000539</v>
       </c>
       <c r="C2" t="n">
         <v>4.817145777480054</v>
@@ -519,7 +519,7 @@
         <v>179.7815706067889</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5205256055405633</v>
+        <v>0.5209675996191799</v>
       </c>
       <c r="G2" t="n">
         <v>0.9160548728493352</v>
@@ -531,7 +531,7 @@
         <v>0.6259375189983354</v>
       </c>
       <c r="J2" t="n">
-        <v>1368.589751697369</v>
+        <v>1470.008428551225</v>
       </c>
       <c r="K2" t="n">
         <v>874.5129999999999</v>
@@ -548,7 +548,7 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>3.307869306252719</v>
+        <v>3.687830186065481</v>
       </c>
       <c r="C3" t="n">
         <v>5.183040375884389</v>
@@ -560,7 +560,7 @@
         <v>170.1114502961771</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4388030925095855</v>
+        <v>0.4310449375540863</v>
       </c>
       <c r="G3" t="n">
         <v>0.9472276300831177</v>
@@ -572,7 +572,7 @@
         <v>0.50487640459327</v>
       </c>
       <c r="J3" t="n">
-        <v>1512.855177646434</v>
+        <v>1626.13191320582</v>
       </c>
       <c r="K3" t="n">
         <v>877.2649999999999</v>
@@ -589,7 +589,7 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>3.444805875008666</v>
+        <v>3.819975580303203</v>
       </c>
       <c r="C4" t="n">
         <v>5.038316116769532</v>
@@ -601,7 +601,7 @@
         <v>122.5898170738229</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4575329796530529</v>
+        <v>0.4487638864177364</v>
       </c>
       <c r="G4" t="n">
         <v>0.9023033963858765</v>
@@ -613,7 +613,7 @@
         <v>0.4944364594485474</v>
       </c>
       <c r="J4" t="n">
-        <v>1480.651452208748</v>
+        <v>1589.66370027347</v>
       </c>
       <c r="K4" t="n">
         <v>907.9939999999999</v>
@@ -630,7 +630,7 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>3.442824728619528</v>
+        <v>3.716279683846471</v>
       </c>
       <c r="C5" t="n">
         <v>4.609237428390788</v>
@@ -642,7 +642,7 @@
         <v>147.4015592461361</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4441537159742089</v>
+        <v>0.4307577569096745</v>
       </c>
       <c r="G5" t="n">
         <v>0.8897713584292684</v>
@@ -654,7 +654,7 @@
         <v>0.5270515452263784</v>
       </c>
       <c r="J5" t="n">
-        <v>1524.814528723175</v>
+        <v>1633.480495801996</v>
       </c>
       <c r="K5" t="n">
         <v>880.702</v>
@@ -671,7 +671,7 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>3.334021130915295</v>
+        <v>3.661055697148117</v>
       </c>
       <c r="C6" t="n">
         <v>4.900170806834261</v>
@@ -683,7 +683,7 @@
         <v>143.8999569160387</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4173503227910144</v>
+        <v>0.4072754945379497</v>
       </c>
       <c r="G6" t="n">
         <v>0.9491329791632978</v>
@@ -695,7 +695,7 @@
         <v>0.5137325225027244</v>
       </c>
       <c r="J6" t="n">
-        <v>1596.894719298534</v>
+        <v>1714.777406735652</v>
       </c>
       <c r="K6" t="n">
         <v>851.278</v>
@@ -712,7 +712,7 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>3.245098350839097</v>
+        <v>3.585953026400534</v>
       </c>
       <c r="C7" t="n">
         <v>5.104784588258316</v>
@@ -724,7 +724,7 @@
         <v>129.4762082072637</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4106520943841577</v>
+        <v>0.4004866486731615</v>
       </c>
       <c r="G7" t="n">
         <v>0.9062057628274756</v>
@@ -736,7 +736,7 @@
         <v>0.5628828021820742</v>
       </c>
       <c r="J7" t="n">
-        <v>1601.152707920177</v>
+        <v>1725.866187685428</v>
       </c>
       <c r="K7" t="n">
         <v>910.028</v>
@@ -753,7 +753,7 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>3.148031559404409</v>
+        <v>3.507710792402266</v>
       </c>
       <c r="C8" t="n">
         <v>5.052474334984193</v>
@@ -765,7 +765,7 @@
         <v>153.0413984179449</v>
       </c>
       <c r="F8" t="n">
-        <v>0.414637343204932</v>
+        <v>0.4063243739063441</v>
       </c>
       <c r="G8" t="n">
         <v>0.8961983216846947</v>
@@ -777,7 +777,7 @@
         <v>0.6015530719967704</v>
       </c>
       <c r="J8" t="n">
-        <v>1561.866788390272</v>
+        <v>1682.410147361587</v>
       </c>
       <c r="K8" t="n">
         <v>915.463</v>
@@ -794,7 +794,7 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>3.522983298272055</v>
+        <v>3.865560412636638</v>
       </c>
       <c r="C9" t="n">
         <v>4.710681830528375</v>
@@ -806,7 +806,7 @@
         <v>103.1891657429647</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4500091876832975</v>
+        <v>0.4392324838149131</v>
       </c>
       <c r="G9" t="n">
         <v>0.9137611396956602</v>
@@ -818,7 +818,7 @@
         <v>0.501857760691757</v>
       </c>
       <c r="J9" t="n">
-        <v>1522.392991255506</v>
+        <v>1633.821646415325</v>
       </c>
       <c r="K9" t="n">
         <v>866.966</v>
@@ -835,7 +835,7 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>3.179764816817132</v>
+        <v>3.516771457998645</v>
       </c>
       <c r="C10" t="n">
         <v>4.931752996643083</v>
@@ -847,7 +847,7 @@
         <v>182.7092149861407</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4306919826868958</v>
+        <v>0.420695587734931</v>
       </c>
       <c r="G10" t="n">
         <v>0.8991000893174085</v>
@@ -859,7 +859,7 @@
         <v>0.6040660277506557</v>
       </c>
       <c r="J10" t="n">
-        <v>1511.205678560094</v>
+        <v>1627.035318264224</v>
       </c>
       <c r="K10" t="n">
         <v>901.5410000000001</v>
@@ -876,7 +876,7 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>2.870915977341283</v>
+        <v>3.110579763551217</v>
       </c>
       <c r="C11" t="n">
         <v>5.372029326915549</v>
@@ -888,7 +888,7 @@
         <v>227.4158819233287</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3818247044007347</v>
+        <v>0.3683028341410021</v>
       </c>
       <c r="G11" t="n">
         <v>0.9337528423440373</v>
@@ -900,7 +900,7 @@
         <v>0.6274397201978645</v>
       </c>
       <c r="J11" t="n">
-        <v>1619.71677977542</v>
+        <v>1747.867369787412</v>
       </c>
       <c r="K11" t="n">
         <v>906.004</v>
@@ -917,7 +917,7 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>2.996672048110249</v>
+        <v>3.197935460579468</v>
       </c>
       <c r="C12" t="n">
         <v>5.102246183381002</v>
@@ -929,7 +929,7 @@
         <v>199.740604639506</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3790550923671357</v>
+        <v>0.3636140133157875</v>
       </c>
       <c r="G12" t="n">
         <v>0.9117180608121523</v>
@@ -941,7 +941,7 @@
         <v>0.5690507962428903</v>
       </c>
       <c r="J12" t="n">
-        <v>1666.90226775703</v>
+        <v>1795.093604729728</v>
       </c>
       <c r="K12" t="n">
         <v>904.3009999999999</v>
@@ -958,7 +958,7 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>2.841304206717104</v>
+        <v>3.147449728872417</v>
       </c>
       <c r="C13" t="n">
         <v>5.022203393120577</v>
@@ -970,7 +970,7 @@
         <v>206.6950305703281</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3843403083402358</v>
+        <v>0.3740954929883895</v>
       </c>
       <c r="G13" t="n">
         <v>0.8532304494205779</v>
@@ -982,7 +982,7 @@
         <v>0.5994665885233715</v>
       </c>
       <c r="J13" t="n">
-        <v>1600.795288485837</v>
+        <v>1730.970990831482</v>
       </c>
       <c r="K13" t="n">
         <v>958.6800000000001</v>
@@ -999,7 +999,7 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>3.496607292636825</v>
+        <v>3.844423804335051</v>
       </c>
       <c r="C14" t="n">
         <v>4.585485732274575</v>
@@ -1011,7 +1011,7 @@
         <v>135.0529740266677</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4589059238852041</v>
+        <v>0.4482410056471485</v>
       </c>
       <c r="G14" t="n">
         <v>0.915637349717223</v>
@@ -1023,7 +1023,7 @@
         <v>0.5021583865856729</v>
       </c>
       <c r="J14" t="n">
-        <v>1487.279630786839</v>
+        <v>1596.602884262822</v>
       </c>
       <c r="K14" t="n">
         <v>853.6149999999999</v>
@@ -1040,7 +1040,7 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>2.73698751955307</v>
+        <v>3.048251498678792</v>
       </c>
       <c r="C15" t="n">
         <v>5.269317561011592</v>
@@ -1052,7 +1052,7 @@
         <v>184.1466938863502</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3893419527469293</v>
+        <v>0.3816450771064601</v>
       </c>
       <c r="G15" t="n">
         <v>0.8965230660921905</v>
@@ -1064,7 +1064,7 @@
         <v>0.5528368224236117</v>
       </c>
       <c r="J15" t="n">
-        <v>1550.950975343402</v>
+        <v>1669.777473168846</v>
       </c>
       <c r="K15" t="n">
         <v>934.563</v>
@@ -1081,7 +1081,7 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>3.551023931677171</v>
+        <v>3.868943027753081</v>
       </c>
       <c r="C16" t="n">
         <v>4.9426654820563</v>
@@ -1093,7 +1093,7 @@
         <v>131.6441672800252</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4268975610010534</v>
+        <v>0.4144396832237783</v>
       </c>
       <c r="G16" t="n">
         <v>0.9195065404939854</v>
@@ -1105,7 +1105,7 @@
         <v>0.5087087517045541</v>
       </c>
       <c r="J16" t="n">
-        <v>1611.187153648661</v>
+        <v>1732.318321579272</v>
       </c>
       <c r="K16" t="n">
         <v>882.508</v>
@@ -1122,7 +1122,7 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>2.523792941355568</v>
+        <v>2.692550679356606</v>
       </c>
       <c r="C17" t="n">
         <v>5.448667112102966</v>
@@ -1134,7 +1134,7 @@
         <v>229.1727568152131</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3353316852262178</v>
+        <v>0.3203722225268264</v>
       </c>
       <c r="G17" t="n">
         <v>0.9602626481108519</v>
@@ -1146,7 +1146,7 @@
         <v>0.6532454281357638</v>
       </c>
       <c r="J17" t="n">
-        <v>1729.19962878303</v>
+        <v>1869.476255797456</v>
       </c>
       <c r="K17" t="n">
         <v>887.254</v>
@@ -1163,7 +1163,7 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>2.897783742562533</v>
+        <v>3.147701475878357</v>
       </c>
       <c r="C18" t="n">
         <v>5.313157794866777</v>
@@ -1175,7 +1175,7 @@
         <v>119.537598142069</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3913142555183779</v>
+        <v>0.3779425077894463</v>
       </c>
       <c r="G18" t="n">
         <v>0.9344154392072506</v>
@@ -1187,7 +1187,7 @@
         <v>0.7244377068194862</v>
       </c>
       <c r="J18" t="n">
-        <v>1587.816025121865</v>
+        <v>1713.420240378927</v>
       </c>
       <c r="K18" t="n">
         <v>900.3869999999999</v>
@@ -1204,7 +1204,7 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>2.446876209037634</v>
+        <v>2.772632298534591</v>
       </c>
       <c r="C19" t="n">
         <v>5.090769854087009</v>
@@ -1216,7 +1216,7 @@
         <v>158.2555686874532</v>
       </c>
       <c r="F19" t="n">
-        <v>0.353465193977447</v>
+        <v>0.3475241814562106</v>
       </c>
       <c r="G19" t="n">
         <v>0.9027012943672187</v>
@@ -1228,7 +1228,7 @@
         <v>0.7924978255411461</v>
       </c>
       <c r="J19" t="n">
-        <v>1615.296338892637</v>
+        <v>1748.855690119198</v>
       </c>
       <c r="K19" t="n">
         <v>912.306</v>
@@ -1245,7 +1245,7 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>2.95139285417575</v>
+        <v>3.326774862942547</v>
       </c>
       <c r="C20" t="n">
         <v>5.060059289823874</v>
@@ -1257,7 +1257,7 @@
         <v>101.2811567459985</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4229382755941576</v>
+        <v>0.4180135463247534</v>
       </c>
       <c r="G20" t="n">
         <v>0.9363686109652082</v>
@@ -1269,7 +1269,7 @@
         <v>0.5847994637780838</v>
       </c>
       <c r="J20" t="n">
-        <v>1482.618397644714</v>
+        <v>1592.62751366822</v>
       </c>
       <c r="K20" t="n">
         <v>876.847</v>
@@ -1286,7 +1286,7 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>2.897558929219258</v>
+        <v>3.269341196041328</v>
       </c>
       <c r="C21" t="n">
         <v>5.6695298584224</v>
@@ -1298,7 +1298,7 @@
         <v>126.5067016223585</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4030037256091871</v>
+        <v>0.397070607318797</v>
       </c>
       <c r="G21" t="n">
         <v>0.9137673581108009</v>
@@ -1310,7 +1310,7 @@
         <v>0.6101746636994505</v>
       </c>
       <c r="J21" t="n">
-        <v>1541.700247127791</v>
+        <v>1662.092721981384</v>
       </c>
       <c r="K21" t="n">
         <v>951.1099999999999</v>
@@ -1327,7 +1327,7 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>2.858305870162422</v>
+        <v>2.870472262021966</v>
       </c>
       <c r="C22" t="n">
         <v>4.741563831807918</v>
@@ -1339,7 +1339,7 @@
         <v>132.6917156832367</v>
       </c>
       <c r="F22" t="n">
-        <v>0.375831457848527</v>
+        <v>0.3517771549135828</v>
       </c>
       <c r="G22" t="n">
         <v>0.9546412806047563</v>
@@ -1351,7 +1351,7 @@
         <v>0.5690488285096765</v>
       </c>
       <c r="J22" t="n">
-        <v>1641.927914785872</v>
+        <v>1757.931343644857</v>
       </c>
       <c r="K22" t="n">
         <v>832.556</v>
@@ -1368,7 +1368,7 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>3.626741441830217</v>
+        <v>3.891625364726056</v>
       </c>
       <c r="C23" t="n">
         <v>5.132679222896282</v>
@@ -1380,7 +1380,7 @@
         <v>165.4304557833053</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4350673762073891</v>
+        <v>0.4266201064407552</v>
       </c>
       <c r="G23" t="n">
         <v>0.9391555700336812</v>
@@ -1392,7 +1392,7 @@
         <v>0.6452123151090703</v>
       </c>
       <c r="J23" t="n">
-        <v>1597.697822260729</v>
+        <v>1687.784745792284</v>
       </c>
       <c r="K23" t="n">
         <v>880.496</v>
@@ -1409,7 +1409,7 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>2.610021793298616</v>
+        <v>2.580189589162795</v>
       </c>
       <c r="C24" t="n">
         <v>5.290498737121782</v>
@@ -1421,7 +1421,7 @@
         <v>168.6777056990284</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3466964463727872</v>
+        <v>0.3238330606615358</v>
       </c>
       <c r="G24" t="n">
         <v>0.9153747056368959</v>
@@ -1433,7 +1433,7 @@
         <v>0.6407921231793343</v>
       </c>
       <c r="J24" t="n">
-        <v>1700.848146608032</v>
+        <v>1810.495664627731</v>
       </c>
       <c r="K24" t="n">
         <v>917.154</v>
@@ -1450,7 +1450,7 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>3.051145264538714</v>
+        <v>3.170239468367399</v>
       </c>
       <c r="C25" t="n">
         <v>4.692852742992623</v>
@@ -1462,7 +1462,7 @@
         <v>142.260259598735</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3745661847113321</v>
+        <v>0.3616976584486941</v>
       </c>
       <c r="G25" t="n">
         <v>0.9227320593728493</v>
@@ -1474,7 +1474,7 @@
         <v>0.5389651468755957</v>
       </c>
       <c r="J25" t="n">
-        <v>1702.141810150611</v>
+        <v>1796.772952858149</v>
       </c>
       <c r="K25" t="n">
         <v>856.9110000000001</v>
@@ -1491,7 +1491,7 @@
         <v>2022</v>
       </c>
       <c r="B26" t="n">
-        <v>2.73631942604779</v>
+        <v>2.654357158473029</v>
       </c>
       <c r="C26" t="n">
         <v>5.281167338822821</v>
@@ -1503,7 +1503,7 @@
         <v>154.7919596934741</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3315490839022636</v>
+        <v>0.3069015387608979</v>
       </c>
       <c r="G26" t="n">
         <v>0.8717437962903186</v>
@@ -1515,7 +1515,7 @@
         <v>0.5756154456330479</v>
       </c>
       <c r="J26" t="n">
-        <v>1821.077501984596</v>
+        <v>1937.641725741084</v>
       </c>
       <c r="K26" t="n">
         <v>962.208</v>
@@ -1618,7 +1618,7 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>3.809298751430293</v>
+        <v>4.402256559000539</v>
       </c>
       <c r="C2" t="n">
         <v>2665636.174188168</v>
@@ -1630,7 +1630,7 @@
         <v>150.8654611622781</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5205256055405633</v>
+        <v>0.5209675996191799</v>
       </c>
       <c r="G2" t="n">
         <v>0.6172857857608812</v>
@@ -1642,7 +1642,7 @@
         <v>1.965211112859708</v>
       </c>
       <c r="J2" t="n">
-        <v>1368.589751697369</v>
+        <v>1470.008428551225</v>
       </c>
       <c r="K2" t="n">
         <v>965399.3999999999</v>
@@ -1659,7 +1659,7 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>3.307869306252719</v>
+        <v>3.687830186065481</v>
       </c>
       <c r="C3" t="n">
         <v>2821441.023253349</v>
@@ -1671,7 +1671,7 @@
         <v>222.6358155143483</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4388030925095855</v>
+        <v>0.4310449375540863</v>
       </c>
       <c r="G3" t="n">
         <v>0.6636791877752488</v>
@@ -1683,7 +1683,7 @@
         <v>1.765443324432092</v>
       </c>
       <c r="J3" t="n">
-        <v>1512.855177646434</v>
+        <v>1626.13191320582</v>
       </c>
       <c r="K3" t="n">
         <v>923783.4</v>
@@ -1700,7 +1700,7 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>3.444805875008666</v>
+        <v>3.819975580303203</v>
       </c>
       <c r="C4" t="n">
         <v>2573094.614534397</v>
@@ -1712,7 +1712,7 @@
         <v>141.8211707510542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4575329796530529</v>
+        <v>0.4487638864177364</v>
       </c>
       <c r="G4" t="n">
         <v>0.5998218021070275</v>
@@ -1724,7 +1724,7 @@
         <v>1.907912614332565</v>
       </c>
       <c r="J4" t="n">
-        <v>1480.651452208748</v>
+        <v>1589.66370027347</v>
       </c>
       <c r="K4" t="n">
         <v>976109.3999999999</v>
@@ -1741,7 +1741,7 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>3.442824728619528</v>
+        <v>3.716279683846471</v>
       </c>
       <c r="C5" t="n">
         <v>2835250.042744543</v>
@@ -1753,7 +1753,7 @@
         <v>195.6899577134388</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4441537159742089</v>
+        <v>0.4307577569096745</v>
       </c>
       <c r="G5" t="n">
         <v>0.6680230803055384</v>
@@ -1765,7 +1765,7 @@
         <v>1.765516746556011</v>
       </c>
       <c r="J5" t="n">
-        <v>1524.814528723175</v>
+        <v>1633.480495801996</v>
       </c>
       <c r="K5" t="n">
         <v>920019.5999999999</v>
@@ -1782,7 +1782,7 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>3.334021130915295</v>
+        <v>3.661055697148117</v>
       </c>
       <c r="C6" t="n">
         <v>2710961.439027548</v>
@@ -1794,7 +1794,7 @@
         <v>177.2848082164765</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4173503227910144</v>
+        <v>0.4072754945379497</v>
       </c>
       <c r="G6" t="n">
         <v>0.6339451660894981</v>
@@ -1806,7 +1806,7 @@
         <v>1.843126415301247</v>
       </c>
       <c r="J6" t="n">
-        <v>1596.894719298534</v>
+        <v>1714.777406735652</v>
       </c>
       <c r="K6" t="n">
         <v>947988</v>
@@ -1823,7 +1823,7 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>3.245098350839097</v>
+        <v>3.585953026400534</v>
       </c>
       <c r="C7" t="n">
         <v>2819427.560296854</v>
@@ -1835,7 +1835,7 @@
         <v>148.4963619947645</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4106520943841577</v>
+        <v>0.4004866486731615</v>
       </c>
       <c r="G7" t="n">
         <v>0.6638821523102454</v>
@@ -1847,7 +1847,7 @@
         <v>1.839770618148933</v>
       </c>
       <c r="J7" t="n">
-        <v>1601.152707920177</v>
+        <v>1725.866187685428</v>
       </c>
       <c r="K7" t="n">
         <v>923171.4000000001</v>
@@ -1864,7 +1864,7 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>3.148031559404409</v>
+        <v>3.507710792402266</v>
       </c>
       <c r="C8" t="n">
         <v>2703651.361221135</v>
@@ -1876,7 +1876,7 @@
         <v>153.8164915944485</v>
       </c>
       <c r="F8" t="n">
-        <v>0.414637343204932</v>
+        <v>0.4063243739063441</v>
       </c>
       <c r="G8" t="n">
         <v>0.6339288393141967</v>
@@ -1888,7 +1888,7 @@
         <v>1.954172008652336</v>
       </c>
       <c r="J8" t="n">
-        <v>1561.866788390272</v>
+        <v>1682.410147361587</v>
       </c>
       <c r="K8" t="n">
         <v>946733.4</v>
@@ -1905,7 +1905,7 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>3.522983298272055</v>
+        <v>3.865560412636638</v>
       </c>
       <c r="C9" t="n">
         <v>2696631.339354509</v>
@@ -1917,7 +1917,7 @@
         <v>143.6217369767526</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4500091876832975</v>
+        <v>0.4392324838149131</v>
       </c>
       <c r="G9" t="n">
         <v>0.6300506643232767</v>
@@ -1929,7 +1929,7 @@
         <v>1.881395637817063</v>
       </c>
       <c r="J9" t="n">
-        <v>1522.392991255506</v>
+        <v>1633.821646415325</v>
       </c>
       <c r="K9" t="n">
         <v>951323.4</v>
@@ -1946,7 +1946,7 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>3.179764816817132</v>
+        <v>3.516771457998645</v>
       </c>
       <c r="C10" t="n">
         <v>2632873.83566762</v>
@@ -1958,7 +1958,7 @@
         <v>170.4015129299626</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4306919826868958</v>
+        <v>0.420695587734931</v>
       </c>
       <c r="G10" t="n">
         <v>0.6167846020575635</v>
@@ -1970,7 +1970,7 @@
         <v>1.979012868927537</v>
       </c>
       <c r="J10" t="n">
-        <v>1511.205678560094</v>
+        <v>1627.035318264224</v>
       </c>
       <c r="K10" t="n">
         <v>960228</v>
@@ -1987,7 +1987,7 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>2.870915977341283</v>
+        <v>3.110579763551217</v>
       </c>
       <c r="C11" t="n">
         <v>2700502.454286919</v>
@@ -1999,7 +1999,7 @@
         <v>165.359966762504</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3818247044007347</v>
+        <v>0.3683028341410021</v>
       </c>
       <c r="G11" t="n">
         <v>0.6295307659334225</v>
@@ -2011,7 +2011,7 @@
         <v>1.915911268419661</v>
       </c>
       <c r="J11" t="n">
-        <v>1619.71677977542</v>
+        <v>1747.867369787412</v>
       </c>
       <c r="K11" t="n">
         <v>952792.2</v>
@@ -2028,7 +2028,7 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>2.996672048110249</v>
+        <v>3.197935460579468</v>
       </c>
       <c r="C12" t="n">
         <v>2687928.265712479</v>
@@ -2040,7 +2040,7 @@
         <v>224.7673929342583</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3790550923671357</v>
+        <v>0.3636140133157875</v>
       </c>
       <c r="G12" t="n">
         <v>0.6298637947871041</v>
@@ -2052,7 +2052,7 @@
         <v>1.884148768271758</v>
       </c>
       <c r="J12" t="n">
-        <v>1666.90226775703</v>
+        <v>1795.093604729728</v>
       </c>
       <c r="K12" t="n">
         <v>950068.8</v>
@@ -2069,7 +2069,7 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>2.841304206717104</v>
+        <v>3.147449728872417</v>
       </c>
       <c r="C13" t="n">
         <v>2694944.890578353</v>
@@ -2081,7 +2081,7 @@
         <v>186.660967896014</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3843403083402358</v>
+        <v>0.3740954929883895</v>
       </c>
       <c r="G13" t="n">
         <v>0.6252281100113815</v>
@@ -2093,7 +2093,7 @@
         <v>1.935673548280075</v>
       </c>
       <c r="J13" t="n">
-        <v>1600.795288485837</v>
+        <v>1730.970990831482</v>
       </c>
       <c r="K13" t="n">
         <v>958361.4</v>
@@ -2110,7 +2110,7 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>3.496607292636825</v>
+        <v>3.844423804335051</v>
       </c>
       <c r="C14" t="n">
         <v>2612342.532263736</v>
@@ -2122,7 +2122,7 @@
         <v>150.2349197178503</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4589059238852041</v>
+        <v>0.4482410056471485</v>
       </c>
       <c r="G14" t="n">
         <v>0.6085186722814466</v>
@@ -2134,7 +2134,7 @@
         <v>1.843798993270666</v>
       </c>
       <c r="J14" t="n">
-        <v>1487.279630786839</v>
+        <v>1596.602884262822</v>
       </c>
       <c r="K14" t="n">
         <v>969469.2</v>
@@ -2151,7 +2151,7 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>2.73698751955307</v>
+        <v>3.048251498678792</v>
       </c>
       <c r="C15" t="n">
         <v>2711587.600705706</v>
@@ -2163,7 +2163,7 @@
         <v>173.6009329512838</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3893419527469293</v>
+        <v>0.3816450771064601</v>
       </c>
       <c r="G15" t="n">
         <v>0.6299919570111462</v>
@@ -2175,7 +2175,7 @@
         <v>1.914484299190535</v>
       </c>
       <c r="J15" t="n">
-        <v>1550.950975343402</v>
+        <v>1669.777473168846</v>
       </c>
       <c r="K15" t="n">
         <v>954046.8</v>
@@ -2192,7 +2192,7 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>3.551023931677171</v>
+        <v>3.868943027753081</v>
       </c>
       <c r="C16" t="n">
         <v>2806152.476027698</v>
@@ -2204,7 +2204,7 @@
         <v>187.187861813377</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4268975610010534</v>
+        <v>0.4144396832237783</v>
       </c>
       <c r="G16" t="n">
         <v>0.6594756665621515</v>
@@ -2216,7 +2216,7 @@
         <v>1.792807946930185</v>
       </c>
       <c r="J16" t="n">
-        <v>1611.187153648661</v>
+        <v>1732.318321579272</v>
       </c>
       <c r="K16" t="n">
         <v>927149.4</v>
@@ -2233,7 +2233,7 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>2.523792941355568</v>
+        <v>2.692550679356606</v>
       </c>
       <c r="C17" t="n">
         <v>2796972.835599579</v>
@@ -2245,7 +2245,7 @@
         <v>199.4812741293086</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3353316852262178</v>
+        <v>0.3203722225268264</v>
       </c>
       <c r="G17" t="n">
         <v>0.655088146414831</v>
@@ -2257,7 +2257,7 @@
         <v>1.95498889484857</v>
       </c>
       <c r="J17" t="n">
-        <v>1729.19962878303</v>
+        <v>1869.476255797456</v>
       </c>
       <c r="K17" t="n">
         <v>931831.2</v>
@@ -2274,7 +2274,7 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>2.897783742562533</v>
+        <v>3.147701475878357</v>
       </c>
       <c r="C18" t="n">
         <v>2753945.944821315</v>
@@ -2286,7 +2286,7 @@
         <v>104.283486620281</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3913142555183779</v>
+        <v>0.3779425077894463</v>
       </c>
       <c r="G18" t="n">
         <v>0.6507778547853644</v>
@@ -2298,7 +2298,7 @@
         <v>2.011674118238541</v>
       </c>
       <c r="J18" t="n">
-        <v>1587.816025121865</v>
+        <v>1713.420240378927</v>
       </c>
       <c r="K18" t="n">
         <v>930760.2</v>
@@ -2315,7 +2315,7 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>2.446876209037634</v>
+        <v>2.772632298534591</v>
       </c>
       <c r="C19" t="n">
         <v>2726219.793823272</v>
@@ -2327,7 +2327,7 @@
         <v>109.9569447180314</v>
       </c>
       <c r="F19" t="n">
-        <v>0.353465193977447</v>
+        <v>0.3475241814562106</v>
       </c>
       <c r="G19" t="n">
         <v>0.6422989740467678</v>
@@ -2339,7 +2339,7 @@
         <v>2.163444399638518</v>
       </c>
       <c r="J19" t="n">
-        <v>1615.296338892637</v>
+        <v>1748.855690119198</v>
       </c>
       <c r="K19" t="n">
         <v>938287.8</v>
@@ -2356,7 +2356,7 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>2.95139285417575</v>
+        <v>3.326774862942547</v>
       </c>
       <c r="C20" t="n">
         <v>2755618.495494807</v>
@@ -2368,7 +2368,7 @@
         <v>103.1193278995033</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4229382755941576</v>
+        <v>0.4180135463247534</v>
       </c>
       <c r="G20" t="n">
         <v>0.6469977795491194</v>
@@ -2380,7 +2380,7 @@
         <v>1.906000431834305</v>
       </c>
       <c r="J20" t="n">
-        <v>1482.618397644714</v>
+        <v>1592.62751366822</v>
       </c>
       <c r="K20" t="n">
         <v>936482.4</v>
@@ -2397,7 +2397,7 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>2.897558929219258</v>
+        <v>3.269341196041328</v>
       </c>
       <c r="C21" t="n">
         <v>2784653.351604396</v>
@@ -2409,7 +2409,7 @@
         <v>123.1230224655012</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4030037256091871</v>
+        <v>0.397070607318797</v>
       </c>
       <c r="G21" t="n">
         <v>0.6554518853722637</v>
@@ -2421,7 +2421,7 @@
         <v>1.897530670334467</v>
       </c>
       <c r="J21" t="n">
-        <v>1541.700247127791</v>
+        <v>1662.092721981384</v>
       </c>
       <c r="K21" t="n">
         <v>929260.8</v>
@@ -2438,7 +2438,7 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>2.858305870162422</v>
+        <v>2.870472262021966</v>
       </c>
       <c r="C22" t="n">
         <v>2738108.366158663</v>
@@ -2450,7 +2450,7 @@
         <v>151.0644859691809</v>
       </c>
       <c r="F22" t="n">
-        <v>0.375831457848527</v>
+        <v>0.3517771549135828</v>
       </c>
       <c r="G22" t="n">
         <v>0.6469471159839423</v>
@@ -2462,7 +2462,7 @@
         <v>1.911789091402425</v>
       </c>
       <c r="J22" t="n">
-        <v>1641.927914785872</v>
+        <v>1757.931343644857</v>
       </c>
       <c r="K22" t="n">
         <v>933575.3999999999</v>
@@ -2479,7 +2479,7 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>3.626741441830217</v>
+        <v>3.891625364726056</v>
       </c>
       <c r="C23" t="n">
         <v>2673060.735148577</v>
@@ -2491,7 +2491,7 @@
         <v>145.9506358749464</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4350673762073891</v>
+        <v>0.4266201064407552</v>
       </c>
       <c r="G23" t="n">
         <v>0.6213551193519512</v>
@@ -2503,7 +2503,7 @@
         <v>2.020986955410131</v>
       </c>
       <c r="J23" t="n">
-        <v>1597.697822260729</v>
+        <v>1687.784745792284</v>
       </c>
       <c r="K23" t="n">
         <v>960411.6000000001</v>
@@ -2520,7 +2520,7 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>2.610021793298616</v>
+        <v>2.580189589162795</v>
       </c>
       <c r="C24" t="n">
         <v>2857744.220575042</v>
@@ -2532,7 +2532,7 @@
         <v>178.4483860565606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3466964463727872</v>
+        <v>0.3238330606615358</v>
       </c>
       <c r="G24" t="n">
         <v>0.67665430848027</v>
@@ -2544,7 +2544,7 @@
         <v>1.8310099234255</v>
       </c>
       <c r="J24" t="n">
-        <v>1700.848146608032</v>
+        <v>1810.495664627731</v>
       </c>
       <c r="K24" t="n">
         <v>911880</v>
@@ -2561,7 +2561,7 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>3.051145264538714</v>
+        <v>3.170239468367399</v>
       </c>
       <c r="C25" t="n">
         <v>2473139.079594762</v>
@@ -2573,7 +2573,7 @@
         <v>150.2020470085712</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3745661847113321</v>
+        <v>0.3616976584486941</v>
       </c>
       <c r="G25" t="n">
         <v>0.5750933948658045</v>
@@ -2585,7 +2585,7 @@
         <v>2.013832903014708</v>
       </c>
       <c r="J25" t="n">
-        <v>1702.141810150611</v>
+        <v>1796.772952858149</v>
       </c>
       <c r="K25" t="n">
         <v>998110.7999999999</v>
@@ -2602,7 +2602,7 @@
         <v>2022</v>
       </c>
       <c r="B26" t="n">
-        <v>2.73631942604779</v>
+        <v>2.654357158473029</v>
       </c>
       <c r="C26" t="n">
         <v>2894453.225580009</v>
@@ -2614,7 +2614,7 @@
         <v>170.3174759988011</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3315490839022636</v>
+        <v>0.3069015387608979</v>
       </c>
       <c r="G26" t="n">
         <v>0.6854024204299645</v>
@@ -2626,7 +2626,7 @@
         <v>1.779134626332216</v>
       </c>
       <c r="J26" t="n">
-        <v>1821.077501984596</v>
+        <v>1937.641725741084</v>
       </c>
       <c r="K26" t="n">
         <v>906004.8</v>
@@ -2729,7 +2729,7 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>3.809298751430293</v>
+        <v>4.402256559000539</v>
       </c>
       <c r="C2" t="n">
         <v>5.011589944302274</v>
@@ -2741,7 +2741,7 @@
         <v>155.8193877202618</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5205256055405633</v>
+        <v>0.5209675996191799</v>
       </c>
       <c r="G2" t="n">
         <v>0.2751537032070308</v>
@@ -2753,7 +2753,7 @@
         <v>0.7013989733154573</v>
       </c>
       <c r="J2" t="n">
-        <v>1368.589751697369</v>
+        <v>1470.008428551225</v>
       </c>
       <c r="K2" t="n">
         <v>2969.65</v>
@@ -2770,7 +2770,7 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>3.307869306252719</v>
+        <v>3.687830186065481</v>
       </c>
       <c r="C3" t="n">
         <v>3.844692458226705</v>
@@ -2782,7 +2782,7 @@
         <v>147.313246625316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4388030925095855</v>
+        <v>0.4310449375540863</v>
       </c>
       <c r="G3" t="n">
         <v>0.2430716075882739</v>
@@ -2794,7 +2794,7 @@
         <v>0.55378456350497</v>
       </c>
       <c r="J3" t="n">
-        <v>1512.855177646434</v>
+        <v>1626.13191320582</v>
       </c>
       <c r="K3" t="n">
         <v>2944.35</v>
@@ -2811,7 +2811,7 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>3.444805875008666</v>
+        <v>3.819975580303203</v>
       </c>
       <c r="C4" t="n">
         <v>4.111735398163481</v>
@@ -2823,7 +2823,7 @@
         <v>103.05144807906</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4575329796530529</v>
+        <v>0.4487638864177364</v>
       </c>
       <c r="G4" t="n">
         <v>0.2451031179641351</v>
@@ -2835,7 +2835,7 @@
         <v>0.5401872335661537</v>
       </c>
       <c r="J4" t="n">
-        <v>1480.651452208748</v>
+        <v>1589.66370027347</v>
       </c>
       <c r="K4" t="n">
         <v>3019.65</v>
@@ -2852,7 +2852,7 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>3.442824728619528</v>
+        <v>3.716279683846471</v>
       </c>
       <c r="C5" t="n">
         <v>4.165370954388077</v>
@@ -2864,7 +2864,7 @@
         <v>127.9336600395002</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4441537159742089</v>
+        <v>0.4307577569096745</v>
       </c>
       <c r="G5" t="n">
         <v>0.2459715956977374</v>
@@ -2876,7 +2876,7 @@
         <v>0.5861889895139331</v>
       </c>
       <c r="J5" t="n">
-        <v>1524.814528723175</v>
+        <v>1633.480495801996</v>
       </c>
       <c r="K5" t="n">
         <v>3028.55</v>
@@ -2893,7 +2893,7 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>3.334021130915295</v>
+        <v>3.661055697148117</v>
       </c>
       <c r="C6" t="n">
         <v>3.951972828541322</v>
@@ -2905,7 +2905,7 @@
         <v>124.8967370210407</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4173503227910144</v>
+        <v>0.4072754945379497</v>
       </c>
       <c r="G6" t="n">
         <v>0.2359650367155597</v>
@@ -2917,7 +2917,7 @@
         <v>0.5727298213100479</v>
       </c>
       <c r="J6" t="n">
-        <v>1596.894719298534</v>
+        <v>1714.777406735652</v>
       </c>
       <c r="K6" t="n">
         <v>3075.05</v>
@@ -2934,7 +2934,7 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>3.245098350839097</v>
+        <v>3.585953026400534</v>
       </c>
       <c r="C7" t="n">
         <v>4.308008166491043</v>
@@ -2946,7 +2946,7 @@
         <v>106.2712256678157</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4106520943841577</v>
+        <v>0.4004866486731615</v>
       </c>
       <c r="G7" t="n">
         <v>0.2515931038984693</v>
@@ -2958,7 +2958,7 @@
         <v>0.6145862631717721</v>
       </c>
       <c r="J7" t="n">
-        <v>1601.152707920177</v>
+        <v>1725.866187685428</v>
       </c>
       <c r="K7" t="n">
         <v>3011.15</v>
@@ -2975,7 +2975,7 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>3.148031559404409</v>
+        <v>3.507710792402266</v>
       </c>
       <c r="C8" t="n">
         <v>3.505858158964324</v>
@@ -2987,7 +2987,7 @@
         <v>131.2570641556013</v>
       </c>
       <c r="F8" t="n">
-        <v>0.414637343204932</v>
+        <v>0.4063243739063441</v>
       </c>
       <c r="G8" t="n">
         <v>0.2276068471646137</v>
@@ -2999,7 +2999,7 @@
         <v>0.6657558874261564</v>
       </c>
       <c r="J8" t="n">
-        <v>1561.866788390272</v>
+        <v>1682.410147361587</v>
       </c>
       <c r="K8" t="n">
         <v>3002.65</v>
@@ -3016,7 +3016,7 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>3.522983298272055</v>
+        <v>3.865560412636638</v>
       </c>
       <c r="C9" t="n">
         <v>3.745244354960108</v>
@@ -3028,7 +3028,7 @@
         <v>83.56125097939776</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4500091876832975</v>
+        <v>0.4392324838149131</v>
       </c>
       <c r="G9" t="n">
         <v>0.2309043800306201</v>
@@ -3040,7 +3040,7 @@
         <v>0.5549767066738708</v>
       </c>
       <c r="J9" t="n">
-        <v>1522.392991255506</v>
+        <v>1633.821646415325</v>
       </c>
       <c r="K9" t="n">
         <v>3059.15</v>
@@ -3057,7 +3057,7 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>3.179764816817132</v>
+        <v>3.516771457998645</v>
       </c>
       <c r="C10" t="n">
         <v>3.982522128556375</v>
@@ -3069,7 +3069,7 @@
         <v>154.5432325030635</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4306919826868958</v>
+        <v>0.420695587734931</v>
       </c>
       <c r="G10" t="n">
         <v>0.2393780269632302</v>
@@ -3081,7 +3081,7 @@
         <v>0.6682684931805239</v>
       </c>
       <c r="J10" t="n">
-        <v>1511.205678560094</v>
+        <v>1627.035318264224</v>
       </c>
       <c r="K10" t="n">
         <v>3042.9</v>
@@ -3098,7 +3098,7 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>2.870915977341283</v>
+        <v>3.110579763551217</v>
       </c>
       <c r="C11" t="n">
         <v>4.115154786993829</v>
@@ -3110,7 +3110,7 @@
         <v>190.3833246706993</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3818247044007347</v>
+        <v>0.3683028341410021</v>
       </c>
       <c r="G11" t="n">
         <v>0.2458359562774598</v>
@@ -3122,7 +3122,7 @@
         <v>0.6757942345702395</v>
       </c>
       <c r="J11" t="n">
-        <v>1619.71677977542</v>
+        <v>1747.867369787412</v>
       </c>
       <c r="K11" t="n">
         <v>3011.9</v>
@@ -3139,7 +3139,7 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>2.996672048110249</v>
+        <v>3.197935460579468</v>
       </c>
       <c r="C12" t="n">
         <v>4.285373400572031</v>
@@ -3151,7 +3151,7 @@
         <v>168.1432467582335</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3790550923671357</v>
+        <v>0.3636140133157875</v>
       </c>
       <c r="G12" t="n">
         <v>0.2498402062805377</v>
@@ -3163,7 +3163,7 @@
         <v>0.609242248561611</v>
       </c>
       <c r="J12" t="n">
-        <v>1666.90226775703</v>
+        <v>1795.093604729728</v>
       </c>
       <c r="K12" t="n">
         <v>3024.3</v>
@@ -3180,7 +3180,7 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>2.841304206717104</v>
+        <v>3.147449728872417</v>
       </c>
       <c r="C13" t="n">
         <v>4.359986941141051</v>
@@ -3192,7 +3192,7 @@
         <v>177.9534393314373</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3843403083402358</v>
+        <v>0.3740954929883895</v>
       </c>
       <c r="G13" t="n">
         <v>0.2548839468868838</v>
@@ -3204,7 +3204,7 @@
         <v>0.6503147587760238</v>
       </c>
       <c r="J13" t="n">
-        <v>1600.795288485837</v>
+        <v>1730.970990831482</v>
       </c>
       <c r="K13" t="n">
         <v>2990.15</v>
@@ -3221,7 +3221,7 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>3.496607292636825</v>
+        <v>3.844423804335051</v>
       </c>
       <c r="C14" t="n">
         <v>3.521123287671233</v>
@@ -3233,7 +3233,7 @@
         <v>112.1194018410595</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4589059238852041</v>
+        <v>0.4482410056471485</v>
       </c>
       <c r="G14" t="n">
         <v>0.2269867957797</v>
@@ -3245,7 +3245,7 @@
         <v>0.5485785726120702</v>
       </c>
       <c r="J14" t="n">
-        <v>1487.279630786839</v>
+        <v>1596.602884262822</v>
       </c>
       <c r="K14" t="n">
         <v>3017.4</v>
@@ -3262,7 +3262,7 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>2.73698751955307</v>
+        <v>3.048251498678792</v>
       </c>
       <c r="C15" t="n">
         <v>3.868109664308294</v>
@@ -3274,7 +3274,7 @@
         <v>160.5715735275444</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3893419527469293</v>
+        <v>0.3816450771064601</v>
       </c>
       <c r="G15" t="n">
         <v>0.2345769563328736</v>
@@ -3286,7 +3286,7 @@
         <v>0.6085274430039784</v>
       </c>
       <c r="J15" t="n">
-        <v>1550.950975343402</v>
+        <v>1669.777473168846</v>
       </c>
       <c r="K15" t="n">
         <v>3060.25</v>
@@ -3303,7 +3303,7 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>3.551023931677171</v>
+        <v>3.868943027753081</v>
       </c>
       <c r="C16" t="n">
         <v>3.293258392292639</v>
@@ -3315,7 +3315,7 @@
         <v>110.7169136926704</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4268975610010534</v>
+        <v>0.4144396832237783</v>
       </c>
       <c r="G16" t="n">
         <v>0.217158809105059</v>
@@ -3327,7 +3327,7 @@
         <v>0.5565591848121628</v>
       </c>
       <c r="J16" t="n">
-        <v>1611.187153648661</v>
+        <v>1732.318321579272</v>
       </c>
       <c r="K16" t="n">
         <v>3050.2</v>
@@ -3344,7 +3344,7 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>2.523792941355568</v>
+        <v>2.692550679356606</v>
       </c>
       <c r="C17" t="n">
         <v>3.920192307692308</v>
@@ -3356,7 +3356,7 @@
         <v>191.1248539240248</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3353316852262178</v>
+        <v>0.3203722225268264</v>
       </c>
       <c r="G17" t="n">
         <v>0.2399936426367153</v>
@@ -3368,7 +3368,7 @@
         <v>0.70155438371414</v>
       </c>
       <c r="J17" t="n">
-        <v>1729.19962878303</v>
+        <v>1869.476255797456</v>
       </c>
       <c r="K17" t="n">
         <v>3011.25</v>
@@ -3385,7 +3385,7 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>2.897783742562533</v>
+        <v>3.147701475878357</v>
       </c>
       <c r="C18" t="n">
         <v>3.872972753274124</v>
@@ -3397,7 +3397,7 @@
         <v>92.11848610890524</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3913142555183779</v>
+        <v>0.3779425077894463</v>
       </c>
       <c r="G18" t="n">
         <v>0.2372595820659393</v>
@@ -3409,7 +3409,7 @@
         <v>0.7862746220265542</v>
       </c>
       <c r="J18" t="n">
-        <v>1587.816025121865</v>
+        <v>1713.420240378927</v>
       </c>
       <c r="K18" t="n">
         <v>3027.55</v>
@@ -3426,7 +3426,7 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>2.446876209037634</v>
+        <v>2.772632298534591</v>
       </c>
       <c r="C19" t="n">
         <v>3.583073272617793</v>
@@ -3438,7 +3438,7 @@
         <v>122.8685833346114</v>
       </c>
       <c r="F19" t="n">
-        <v>0.353465193977447</v>
+        <v>0.3475241814562106</v>
       </c>
       <c r="G19" t="n">
         <v>0.2296789641451592</v>
@@ -3450,7 +3450,7 @@
         <v>0.8562783778004335</v>
       </c>
       <c r="J19" t="n">
-        <v>1615.296338892637</v>
+        <v>1748.855690119198</v>
       </c>
       <c r="K19" t="n">
         <v>3008.15</v>
@@ -3467,7 +3467,7 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>2.95139285417575</v>
+        <v>3.326774862942547</v>
       </c>
       <c r="C20" t="n">
         <v>3.746118094234533</v>
@@ -3479,7 +3479,7 @@
         <v>82.919259762522</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4229382755941576</v>
+        <v>0.4180135463247534</v>
       </c>
       <c r="G20" t="n">
         <v>0.2370649413035423</v>
@@ -3491,7 +3491,7 @@
         <v>0.65840267433809</v>
       </c>
       <c r="J20" t="n">
-        <v>1482.618397644714</v>
+        <v>1592.62751366822</v>
       </c>
       <c r="K20" t="n">
         <v>2980</v>
@@ -3508,7 +3508,7 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>2.897558929219258</v>
+        <v>3.269341196041328</v>
       </c>
       <c r="C21" t="n">
         <v>3.583929437001355</v>
@@ -3520,7 +3520,7 @@
         <v>100.0722757717173</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4030037256091871</v>
+        <v>0.397070607318797</v>
       </c>
       <c r="G21" t="n">
         <v>0.2270309227003391</v>
@@ -3532,7 +3532,7 @@
         <v>0.6609196951241597</v>
       </c>
       <c r="J21" t="n">
-        <v>1541.700247127791</v>
+        <v>1662.092721981384</v>
       </c>
       <c r="K21" t="n">
         <v>3043.6</v>
@@ -3549,7 +3549,7 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>2.858305870162422</v>
+        <v>2.870472262021966</v>
       </c>
       <c r="C22" t="n">
         <v>3.609953409604095</v>
@@ -3561,7 +3561,7 @@
         <v>108.2618934802093</v>
       </c>
       <c r="F22" t="n">
-        <v>0.375831457848527</v>
+        <v>0.3517771549135828</v>
       </c>
       <c r="G22" t="n">
         <v>0.2312962428227422</v>
@@ -3573,7 +3573,7 @@
         <v>0.6277305785852885</v>
       </c>
       <c r="J22" t="n">
-        <v>1641.927914785872</v>
+        <v>1757.931343644857</v>
       </c>
       <c r="K22" t="n">
         <v>2998.3</v>
@@ -3590,7 +3590,7 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>3.626741441830217</v>
+        <v>3.891625364726056</v>
       </c>
       <c r="C23" t="n">
         <v>3.445073310251393</v>
@@ -3602,7 +3602,7 @@
         <v>131.061290002869</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4350673762073891</v>
+        <v>0.4266201064407552</v>
       </c>
       <c r="G23" t="n">
         <v>0.2243548645763172</v>
@@ -3614,7 +3614,7 @@
         <v>0.6988494793686804</v>
       </c>
       <c r="J23" t="n">
-        <v>1597.697822260729</v>
+        <v>1687.784745792284</v>
       </c>
       <c r="K23" t="n">
         <v>3019.65</v>
@@ -3631,7 +3631,7 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>2.610021793298616</v>
+        <v>2.580189589162795</v>
       </c>
       <c r="C24" t="n">
         <v>3.867277321993075</v>
@@ -3643,7 +3643,7 @@
         <v>139.2707495811788</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3466964463727872</v>
+        <v>0.3238330606615358</v>
       </c>
       <c r="G24" t="n">
         <v>0.2437224173137166</v>
@@ -3655,7 +3655,7 @@
         <v>0.6958375758139171</v>
       </c>
       <c r="J24" t="n">
-        <v>1700.848146608032</v>
+        <v>1810.495664627731</v>
       </c>
       <c r="K24" t="n">
         <v>2945.1</v>
@@ -3672,7 +3672,7 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>3.051145264538714</v>
+        <v>3.170239468367399</v>
       </c>
       <c r="C25" t="n">
         <v>4.055968387776607</v>
@@ -3684,7 +3684,7 @@
         <v>120.3236675461087</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3745661847113321</v>
+        <v>0.3616976584486941</v>
       </c>
       <c r="G25" t="n">
         <v>0.2414840014033717</v>
@@ -3696,7 +3696,7 @@
         <v>0.5912241436576522</v>
       </c>
       <c r="J25" t="n">
-        <v>1702.141810150611</v>
+        <v>1796.772952858149</v>
       </c>
       <c r="K25" t="n">
         <v>3044.05</v>
@@ -3713,7 +3713,7 @@
         <v>2022</v>
       </c>
       <c r="B26" t="n">
-        <v>2.73631942604779</v>
+        <v>2.654357158473029</v>
       </c>
       <c r="C26" t="n">
         <v>4.139904786993829</v>
@@ -3725,7 +3725,7 @@
         <v>130.6889063397378</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3315490839022636</v>
+        <v>0.3069015387608979</v>
       </c>
       <c r="G26" t="n">
         <v>0.244899123852065</v>
@@ -3737,7 +3737,7 @@
         <v>0.6238759558969176</v>
       </c>
       <c r="J26" t="n">
-        <v>1821.077501984596</v>
+        <v>1937.641725741084</v>
       </c>
       <c r="K26" t="n">
         <v>3032.5</v>
